--- a/src/test/resources/import/generic/valid-wider-than-header.xlsx
+++ b/src/test/resources/import/generic/valid-wider-than-header.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21615"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A1A2E47-E669-4BD9-A833-4A4033FB6CFC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="112" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{F6BCB266-8E52-4A50-AC76-0571817F7669}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="registrants" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="32">
   <si>
     <t>First Name</t>
   </si>
@@ -92,7 +92,7 @@
     <t>gagneray@beable.com</t>
   </si>
   <si>
-    <t>PT_BR</t>
+    <t>IT_IT</t>
   </si>
   <si>
     <t>License</t>
@@ -113,19 +113,13 @@
     <t>VISIO</t>
   </si>
   <si>
-    <t>ES_ES</t>
+    <t>DE_DE</t>
   </si>
   <si>
     <t>ASSESSMENT</t>
   </si>
   <si>
-    <t>IT_IT</t>
-  </si>
-  <si>
     <t>NEWS</t>
-  </si>
-  <si>
-    <t>DE_DE</t>
   </si>
 </sst>
 </file>
@@ -490,8 +484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="I1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="A2" sqref="A2:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -604,8 +598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4430BB58-B4E4-4B0E-8687-53C62F0242DD}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{0AE93642-3064-541A-AC2E-D2431B81D913}">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{0AE93642-3064-541A-AC2E-D2431B81D913}">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -650,7 +644,7 @@
         <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="D3">
         <v>45</v>
@@ -678,7 +672,7 @@
         <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="D5">
         <v>10</v>
@@ -692,7 +686,7 @@
         <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -703,7 +697,7 @@
         <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="D7">
         <v>50</v>
@@ -714,10 +708,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D8">
         <v>55</v>
